--- a/Recycling/Met_rec/metrec_Avg_full_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_full_Min.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1455,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>4743.140700921356</v>
+        <v>4743.140700921355</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2445,7 +2445,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>246289.1197923585</v>
+        <v>246289.1197923586</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2907,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>481803.0731900062</v>
+        <v>481803.0731900061</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5085,7 +5085,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2087299.662355097</v>
+        <v>2087299.662355096</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5283,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3104037.147303548</v>
+        <v>3104037.147303547</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5349,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3376234.707882297</v>
+        <v>3376234.707882298</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5481,7 +5481,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3695916.899278036</v>
+        <v>3695916.899278035</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6339,7 +6339,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2759350.980138073</v>
+        <v>2759350.980138074</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7131,7 +7131,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3938185.95666158</v>
+        <v>3938185.956661581</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Avg_full_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_full_Min.xlsx
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5452510.197548892</v>
+        <v>5452510.197548893</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6.690587976494487</v>
+        <v>6.690587976494488</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>658.7591550012388</v>
+        <v>658.7591550012389</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>366.2743571501252</v>
+        <v>366.2743571501253</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>9472.088745327648</v>
+        <v>9472.08874532765</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3688,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3059.383776654256</v>
+        <v>3059.383776654257</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8035.964950147917</v>
+        <v>8035.964950147915</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4416,7 +4416,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5255.749958295941</v>
+        <v>5255.749958295942</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>8336.524437398437</v>
+        <v>8336.524437398439</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5932,7 +5932,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>112185.7413971879</v>
+        <v>112185.741397188</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5976,7 +5976,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>92485.0560170058</v>
+        <v>92485.05601700583</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6544,7 +6544,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>226532.7529805624</v>
+        <v>226532.7529805625</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7156,7 +7156,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>488250.8614432749</v>
+        <v>488250.861443275</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8788,7 +8788,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>2644996.779863314</v>
+        <v>2644996.779863315</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>838777.1640975288</v>
+        <v>838777.1640975289</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10668,7 +10668,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3804612.186920269</v>
+        <v>3804612.18692027</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10988,7 +10988,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5088238.766231425</v>
+        <v>5088238.766231427</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11352,7 +11352,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>8977056.041582221</v>
+        <v>8977056.041582217</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11600,7 +11600,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5016216.774148721</v>
+        <v>5016216.774148722</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12008,7 +12008,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4235539.684830902</v>
+        <v>4235539.684830901</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12372,7 +12372,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6434732.18559206</v>
+        <v>6434732.185592061</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12504,7 +12504,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2495039.580035339</v>
+        <v>2495039.58003534</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12868,7 +12868,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>10942461.9830455</v>
+        <v>10942461.98304549</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12984,7 +12984,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4426572.85993974</v>
+        <v>4426572.859939741</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13116,7 +13116,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1571783.435344977</v>
+        <v>1571783.435344976</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13232,7 +13232,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2186234.512668294</v>
+        <v>2186234.512668293</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13320,7 +13320,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1330190.449672022</v>
+        <v>1330190.449672023</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13888,7 +13888,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9091553.98500059</v>
+        <v>9091553.985000588</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14864,7 +14864,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2859059.056564568</v>
+        <v>2859059.056564567</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15564,7 +15564,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3185544.5354491</v>
+        <v>3185544.535449099</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15636,7 +15636,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6783809.95595129</v>
+        <v>6783809.955951291</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15840,7 +15840,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7185233.74448003</v>
+        <v>7185233.744480031</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15884,7 +15884,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4898456.979710933</v>
+        <v>4898456.979710932</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16044,7 +16044,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7455012.218299449</v>
+        <v>7455012.218299451</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16380,7 +16380,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3944352.358619561</v>
+        <v>3944352.358619562</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7402979.993990321</v>
+        <v>7402979.993990323</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17268,7 +17268,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6941283.846716124</v>
+        <v>6941283.846716125</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17880,7 +17880,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5595660.392413302</v>
+        <v>5595660.392413301</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18332,7 +18332,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3569836.683388145</v>
+        <v>3569836.683388144</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19512,7 +19512,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4466628.013317725</v>
+        <v>4466628.013317726</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20328,7 +20328,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5656371.063772127</v>
+        <v>5656371.063772126</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20460,7 +20460,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3292172.060613308</v>
+        <v>3292172.060613309</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20780,7 +20780,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5187476.060386195</v>
+        <v>5187476.060386194</v>
       </c>
     </row>
     <row r="9" spans="1:4">
